--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3262.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3262.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.26149185532014</v>
+        <v>3.55469822883606</v>
       </c>
       <c r="B1">
-        <v>1.47914112081437</v>
+        <v>2.338839530944824</v>
       </c>
       <c r="C1">
-        <v>1.916625501459023</v>
+        <v>1.773891091346741</v>
       </c>
       <c r="D1">
-        <v>4.309020921163864</v>
+        <v>1.615631461143494</v>
       </c>
       <c r="E1">
-        <v>4.117702848398952</v>
+        <v>1.452238082885742</v>
       </c>
     </row>
   </sheetData>
